--- a/biology/Médecine/1117_en_santé_et_médecine/1117_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1117_en_santé_et_médecine/1117_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1117_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1117_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1117 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1117_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1117_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation, hors les murs de Liège, d'une léproserie qui sera confiée en 1124, par le prince évêque Albéron Ier, aux chanoines et chanoinesses prémontrés de l'abbaye du Mont-Cornillon[1].
-Guillaume II, comte de Nevers, fonde un hôpital dans les environs de Clamecy, sur la rive droite de l'Yonne[2].
-1117-1118 : Mathilde d'Écosse, femme du roi d'Angleterre Henri Ier, fonde à Londres l'hôpital pour lépreux de St. Giles-in-the-Fields[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation, hors les murs de Liège, d'une léproserie qui sera confiée en 1124, par le prince évêque Albéron Ier, aux chanoines et chanoinesses prémontrés de l'abbaye du Mont-Cornillon.
+Guillaume II, comte de Nevers, fonde un hôpital dans les environs de Clamecy, sur la rive droite de l'Yonne.
+1117-1118 : Mathilde d'Écosse, femme du roi d'Angleterre Henri Ier, fonde à Londres l'hôpital pour lépreux de St. Giles-in-the-Fields.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1117_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1117_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1111-1117 : parution en Chine des vingt mille ordonnances du Sheng ji zong lu (« Encyclopédie impériale de la médecine » ou « Recueil du soulagement sacré[4] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1111-1117 : parution en Chine des vingt mille ordonnances du Sheng ji zong lu (« Encyclopédie impériale de la médecine » ou « Recueil du soulagement sacré »).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1117_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1117_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1111-1117 : fl. Kou Zongshi, fonctionnaire du service de santé de l'empereur Song Zhenzong et auteur du Ben cao yan yi (« Développement de matière médicale »), pharmacopée achevée en 1116[4].
-1117-1118 : fl. Laurent, « signataire d'une charte de Saint-Nicolas d'Angers », serviteur d'un médecin nommé Jean (« famulus Joannis medici »), mais que Dubreuil-Chambardel présente, à tort selon Wickersheimer[5], comme étant le « disciple » de ce médecin[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1111-1117 : fl. Kou Zongshi, fonctionnaire du service de santé de l'empereur Song Zhenzong et auteur du Ben cao yan yi (« Développement de matière médicale »), pharmacopée achevée en 1116.
+1117-1118 : fl. Laurent, « signataire d'une charte de Saint-Nicolas d'Angers », serviteur d'un médecin nommé Jean (« famulus Joannis medici »), mais que Dubreuil-Chambardel présente, à tort selon Wickersheimer, comme étant le « disciple » de ce médecin.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1117_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1117_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Faricius (né à une date inconnue), abbé d'Abingdon « qui concilia activement abbatiat et pratique de la médecine[7] » ; au service d'Henri Ier, roi d'Angleterre, il assista en 1101 la reine Mathilde lors de ses premières couches[8],</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Faricius (né à une date inconnue), abbé d'Abingdon « qui concilia activement abbatiat et pratique de la médecine » ; au service d'Henri Ier, roi d'Angleterre, il assista en 1101 la reine Mathilde lors de ses premières couches,</t>
         </is>
       </c>
     </row>
